--- a/sql training.xlsx
+++ b/sql training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="vendors" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="stafff" sheetId="8" r:id="rId8"/>
     <sheet name="orders" sheetId="9" r:id="rId9"/>
     <sheet name="category" sheetId="10" r:id="rId10"/>
+    <sheet name="payment" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -61,9 +62,6 @@
     <t>customerid</t>
   </si>
   <si>
-    <t>paymentid</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -110,6 +108,18 @@
   </si>
   <si>
     <t>products</t>
+  </si>
+  <si>
+    <t>payment id</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>vendor_id</t>
   </si>
 </sst>
 </file>
@@ -489,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,13 +513,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -525,21 +535,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +625,7 @@
     <col min="3" max="3" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -600,11 +633,17 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -613,18 +652,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,12 +671,9 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -651,13 +687,12 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,94 +703,94 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -781,14 +816,14 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
